--- a/data/Datasets/Tumors/Metadata_age_GSE22832_GSE228632.xlsx
+++ b/data/Datasets/Tumors/Metadata_age_GSE22832_GSE228632.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glori\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glori\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3DD67F2-02F9-4989-8ED8-B27D46BAABB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2904C18A-C42A-4DE8-86C5-2E2148849CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{04C78FF4-A19E-471F-A9CF-C74E618A73AC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{04C78FF4-A19E-471F-A9CF-C74E618A73AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Supplementary Data 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <r>
       <rPr>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 78/28</t>
+  </si>
+  <si>
+    <t>Age_max</t>
+  </si>
+  <si>
+    <t>Age_min</t>
   </si>
 </sst>
 </file>
@@ -373,9 +379,6 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -422,6 +425,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -756,81 +762,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB10C1F-10FE-48AF-AA61-E0023BF3D5C0}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:K1"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="29.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.44140625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" customWidth="1"/>
-    <col min="8" max="8" width="3.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="11" width="8.77734375" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="39.109375" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="13" width="8.77734375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+    </row>
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>1125</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>315</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>1131</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="str">
+        <f>F3</f>
+        <v>6.35 (±4.39)</v>
+      </c>
+      <c r="F3" s="7" t="str">
+        <f>G3</f>
+        <v>6.35 (±4.39)</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B4">
@@ -842,35 +864,51 @@
       <c r="D4">
         <v>281</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="7" t="str">
+        <f t="shared" ref="E4:E5" si="0">F4</f>
+        <v>8.19 (±4.97)</v>
+      </c>
+      <c r="F4" s="7" t="str">
+        <f t="shared" ref="F4:F5" si="1">G4</f>
+        <v>8.19 (±4.97)</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>844</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>143</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>850</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>5.74 (±4.0)</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>5.74 (±4.0)</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B6">
@@ -882,15 +920,21 @@
       <c r="D6">
         <v>302</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B7">
@@ -902,15 +946,21 @@
       <c r="D7">
         <v>266</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B8">
@@ -922,15 +972,21 @@
       <c r="D8">
         <v>58</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B9">
@@ -942,15 +998,21 @@
       <c r="D9">
         <v>34</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B10">
@@ -962,15 +1024,21 @@
       <c r="D10">
         <v>30</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B11">
@@ -982,15 +1050,21 @@
       <c r="D11">
         <v>24</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B12">
@@ -1002,63 +1076,81 @@
       <c r="D12">
         <v>20</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>14</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>10</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>0</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>10</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="14">
+        <v>5</v>
+      </c>
+      <c r="F13" s="14">
+        <v>14</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="H13" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="20">
         <v>105</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>19</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <v>106</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="20">
+        <v>5</v>
+      </c>
+      <c r="F14" s="20">
+        <v>13</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="H14" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E18" s="24"/>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="F24" s="25"/>
+    <row r="15" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G18" s="23"/>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
